--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf10-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf10-Fgfr2.xlsx
@@ -88,10 +88,10 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -549,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.493831</v>
+        <v>0.2858606666666667</v>
       </c>
       <c r="N2">
-        <v>1.481493</v>
+        <v>0.857582</v>
       </c>
       <c r="O2">
-        <v>0.1121895146192186</v>
+        <v>0.0687156860066334</v>
       </c>
       <c r="P2">
-        <v>0.1134277760249069</v>
+        <v>0.06932858672617494</v>
       </c>
       <c r="Q2">
-        <v>0.1312141889066666</v>
+        <v>0.07595508487111111</v>
       </c>
       <c r="R2">
-        <v>1.18092770016</v>
+        <v>0.6835957638399999</v>
       </c>
       <c r="S2">
-        <v>0.1121895146192186</v>
+        <v>0.0687156860066334</v>
       </c>
       <c r="T2">
-        <v>0.1134277760249069</v>
+        <v>0.06932858672617494</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>11.290081</v>
       </c>
       <c r="O3">
-        <v>0.85496773012202</v>
+        <v>0.9046431256549901</v>
       </c>
       <c r="P3">
-        <v>0.8644042050627692</v>
+        <v>0.9127119736118995</v>
       </c>
       <c r="Q3">
         <v>0.9999499296355555</v>
@@ -635,10 +635,10 @@
         <v>8.99954936672</v>
       </c>
       <c r="S3">
-        <v>0.85496773012202</v>
+        <v>0.9046431256549901</v>
       </c>
       <c r="T3">
-        <v>0.8644042050627692</v>
+        <v>0.9127119736118995</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,34 +673,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0004073333333333333</v>
+        <v>0.110331</v>
       </c>
       <c r="N4">
-        <v>0.001222</v>
+        <v>0.220662</v>
       </c>
       <c r="O4">
-        <v>9.253880164447964E-05</v>
+        <v>0.02652155835639462</v>
       </c>
       <c r="P4">
-        <v>9.356017362379453E-05</v>
+        <v>0.01783874265571248</v>
       </c>
       <c r="Q4">
-        <v>0.0001082311822222222</v>
+        <v>0.02931568224</v>
       </c>
       <c r="R4">
-        <v>0.0009740806399999999</v>
+        <v>0.17589409344</v>
       </c>
       <c r="S4">
-        <v>9.253880164447964E-05</v>
+        <v>0.02652155835639462</v>
       </c>
       <c r="T4">
-        <v>9.356017362379453E-05</v>
+        <v>0.01783874265571248</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,34 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1441585</v>
+        <v>0.0004976666666666667</v>
       </c>
       <c r="N5">
-        <v>0.288317</v>
+        <v>0.001493</v>
       </c>
       <c r="O5">
-        <v>0.03275021645711715</v>
+        <v>0.0001196299819817856</v>
       </c>
       <c r="P5">
-        <v>0.02207445873870014</v>
+        <v>0.0001206970062130259</v>
       </c>
       <c r="Q5">
-        <v>0.03830387450666666</v>
+        <v>0.0001322333511111111</v>
       </c>
       <c r="R5">
-        <v>0.22982324704</v>
+        <v>0.00119010016</v>
       </c>
       <c r="S5">
-        <v>0.03275021645711715</v>
+        <v>0.0001196299819817856</v>
       </c>
       <c r="T5">
-        <v>0.02207445873870014</v>
+        <v>0.0001206970062130259</v>
       </c>
     </row>
   </sheetData>
